--- a/file_comp/files/test2.xlsx
+++ b/file_comp/files/test2.xlsx
@@ -79,6 +79,7 @@
         <table:table-column table:style-name="co3" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="ce3"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>user_id</text:p>
@@ -95,6 +96,7 @@
           <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
             <text:p>created_at</text:p>
           </table:table-cell>
+          <table:table-cell table:style-name="ce2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -112,6 +114,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-01T14:30:40" calcext:value-type="date">
             <text:p>2020-12-01 14:30:40</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -129,6 +132,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-02-03T14:38:19" calcext:value-type="date">
             <text:p>2021-02-03 14:38:19</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -146,6 +150,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-02T10:00:03" calcext:value-type="date">
             <text:p>2020-12-02 10:00:03</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -163,6 +168,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-10T10:30:38" calcext:value-type="date">
             <text:p>2020-12-10 10:30:38</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -180,6 +186,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-17T10:00:02" calcext:value-type="date">
             <text:p>2020-12-17 10:00:02</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -197,6 +204,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-24T10:00:03" calcext:value-type="date">
             <text:p>2020-12-24 10:00:03</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -214,6 +222,7 @@
           <table:table-cell office:value-type="date" office:date-value="2020-12-31T10:00:02" calcext:value-type="date">
             <text:p>2020-12-31 10:00:02</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -231,6 +240,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-01-07T10:00:03" calcext:value-type="date">
             <text:p>2021-01-07 10:00:03</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -248,6 +258,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-01-14T10:00:03" calcext:value-type="date">
             <text:p>2021-01-14 10:00:03</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -265,6 +276,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-01-21T10:00:03" calcext:value-type="date">
             <text:p>2021-01-21 10:00:03</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -282,6 +294,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-01-28T10:00:02" calcext:value-type="date">
             <text:p>2021-01-28 10:00:02</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -299,6 +312,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-02-04T10:00:02" calcext:value-type="date">
             <text:p>2021-02-04 10:00:02</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -316,6 +330,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-02-11T10:00:06" calcext:value-type="date">
             <text:p>2021-02-11 10:00:06</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
@@ -333,6 +348,7 @@
           <table:table-cell office:value-type="date" office:date-value="2021-02-18T10:00:06" calcext:value-type="date">
             <text:p>2021-02-18 10:00:06</text:p>
           </table:table-cell>
+          <table:table-cell/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -345,9 +361,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2021-03-03T08:28:08.831815603</meta:creation-date>
-    <dc:date>2022-07-28T15:39:24.508582186</dc:date>
-    <meta:editing-duration>PT27M13S</meta:editing-duration>
-    <meta:editing-cycles>8</meta:editing-cycles>
+    <dc:date>2022-08-03T11:34:39.254032651</dc:date>
+    <meta:editing-duration>PT27M57S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.4.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="75" meta:object-count="0"/>
   </office:meta>
@@ -367,8 +383,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -429,7 +445,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">mAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAuQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
